--- a/out/18Sept19.xlsx
+++ b/out/18Sept19.xlsx
@@ -9,13 +9,16 @@
   <sheets>
     <sheet name="Corrected_GC.wke" sheetId="1" r:id="rId1"/>
     <sheet name="Reference_measured" sheetId="2" r:id="rId2"/>
+    <sheet name="QA_de-deriv" sheetId="3" r:id="rId3"/>
+    <sheet name="Samples_de-deriv" sheetId="4" r:id="rId4"/>
+    <sheet name="Final_de-deriv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="49">
   <si>
     <t>18Sept19</t>
   </si>
@@ -140,37 +143,28 @@
     <t>Inj_2</t>
   </si>
   <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>avg_all</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>Ext_std</t>
+  </si>
+  <si>
+    <t>Std_method</t>
+  </si>
+  <si>
     <t>Inj_3</t>
   </si>
   <si>
-    <t>Inj_4</t>
+    <t>Mean_d13c_dd</t>
   </si>
   <si>
-    <t>Inj_5</t>
-  </si>
-  <si>
-    <t>Inj_6</t>
-  </si>
-  <si>
-    <t>Inj_7</t>
-  </si>
-  <si>
-    <t>Inj_8</t>
-  </si>
-  <si>
-    <t>Inj_9</t>
-  </si>
-  <si>
-    <t>Inj_10</t>
-  </si>
-  <si>
-    <t>Inj_11</t>
-  </si>
-  <si>
-    <t>Inj_12</t>
-  </si>
-  <si>
-    <t>Inj_13</t>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -728,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <v>-25.675</v>
+        <v>-18.75653813365992</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -748,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="F9">
-        <v>-22.866</v>
+        <v>-34.88638326969717</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -768,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>-27.508</v>
+        <v>-14.61923481021149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -788,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>-29.922</v>
+        <v>-27.91303618426644</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -848,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>-25.752</v>
+        <v>-18.75653813365992</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -868,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="F15">
-        <v>-22.686</v>
+        <v>-34.88638326969717</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -888,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="F16">
-        <v>-27.585</v>
+        <v>-14.61923481021149</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -908,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>-29.803</v>
+        <v>-27.91303618426644</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,7 +962,7 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>-25.688</v>
+        <v>-18.75653813365992</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -988,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="F21">
-        <v>-22.033</v>
+        <v>-34.88638326969717</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1008,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="F22">
-        <v>-27.641</v>
+        <v>-14.61923481021149</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1028,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="F23">
-        <v>-29.671</v>
+        <v>-27.91303618426644</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1208,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>-26.52</v>
+        <v>-19.22070480032659</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1228,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="F33">
-        <v>-23.634</v>
+        <v>-35.3767166030305</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1248,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="F34">
-        <v>-27.683</v>
+        <v>-14.67956814354483</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1268,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="F35">
-        <v>-29.423</v>
+        <v>-27.70803618426644</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1328,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="F38">
-        <v>-26.708</v>
+        <v>-19.22070480032659</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1348,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>-23.432</v>
+        <v>-35.3767166030305</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1368,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="F40">
-        <v>-27.674</v>
+        <v>-14.67956814354483</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1388,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>-29.317</v>
+        <v>-27.70803618426644</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1448,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>-26.672</v>
+        <v>-19.22070480032659</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1468,7 +1462,7 @@
         <v>16</v>
       </c>
       <c r="F45">
-        <v>-23.461</v>
+        <v>-35.3767166030305</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1488,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="F46">
-        <v>-27.739</v>
+        <v>-14.67956814354483</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1508,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="F47">
-        <v>-29.426</v>
+        <v>-27.70803618426644</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1688,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>-26.452</v>
+        <v>-19.16637146699325</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1708,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="F57">
-        <v>-22.867</v>
+        <v>-35.14138326969717</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1728,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="F58">
-        <v>-27.859</v>
+        <v>-14.80840147687816</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1748,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="F59">
-        <v>-29.465</v>
+        <v>-27.7957028509331</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1808,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="F62">
-        <v>-26.514</v>
+        <v>-19.16637146699325</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1828,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="F63">
-        <v>-22.977</v>
+        <v>-35.14138326969717</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1848,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="F64">
-        <v>-27.984</v>
+        <v>-14.80840147687816</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1868,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="F65">
-        <v>-29.531</v>
+        <v>-27.7957028509331</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1928,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="F68">
-        <v>-26.608</v>
+        <v>-19.16637146699325</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1948,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="F69">
-        <v>-23.271</v>
+        <v>-35.14138326969717</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1968,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="F70">
-        <v>-28.026</v>
+        <v>-14.80840147687816</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1988,7 +1982,7 @@
         <v>18</v>
       </c>
       <c r="F71">
-        <v>-29.696</v>
+        <v>-27.7957028509331</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2168,7 +2162,7 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>-25.989</v>
+        <v>-18.93470480032659</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2188,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="F81">
-        <v>-22.148</v>
+        <v>-34.78854993636384</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2208,7 +2202,7 @@
         <v>17</v>
       </c>
       <c r="F82">
-        <v>-27.221</v>
+        <v>-14.43990147687816</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2228,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="F83">
-        <v>-29.525</v>
+        <v>-27.77320285093311</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2288,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="F86">
-        <v>-26.022</v>
+        <v>-18.93470480032659</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2308,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="F87">
-        <v>-22.486</v>
+        <v>-34.78854993636384</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2328,7 +2322,7 @@
         <v>17</v>
       </c>
       <c r="F88">
-        <v>-27.23</v>
+        <v>-14.43990147687816</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2348,7 +2342,7 @@
         <v>18</v>
       </c>
       <c r="F89">
-        <v>-29.487</v>
+        <v>-27.77320285093311</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2408,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="F92">
-        <v>-26.173</v>
+        <v>-18.93470480032659</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2428,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="F93">
-        <v>-22.364</v>
+        <v>-34.78854993636384</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2448,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="F94">
-        <v>-27.207</v>
+        <v>-14.43990147687816</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2468,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F95">
-        <v>-29.545</v>
+        <v>-27.77320285093311</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2648,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="F104">
-        <v>-28.079</v>
+        <v>-19.96720480032659</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2668,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="F105">
-        <v>-25.763</v>
+        <v>-36.53888326969717</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2688,7 +2682,7 @@
         <v>17</v>
       </c>
       <c r="F106">
-        <v>-30.058</v>
+        <v>-15.87473481021149</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2708,7 +2702,7 @@
         <v>18</v>
       </c>
       <c r="F107">
-        <v>-29.42</v>
+        <v>-27.74420285093311</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2768,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>-28.173</v>
+        <v>-19.96720480032659</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2788,7 +2782,7 @@
         <v>16</v>
       </c>
       <c r="F111">
-        <v>-25.685</v>
+        <v>-36.53888326969717</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2808,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="F112">
-        <v>-30.098</v>
+        <v>-15.87473481021149</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2828,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="F113">
-        <v>-29.422</v>
+        <v>-27.74420285093311</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2888,7 +2882,7 @@
         <v>15</v>
       </c>
       <c r="F116">
-        <v>-28.127</v>
+        <v>-19.96720480032659</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2908,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="F117">
-        <v>-26.052</v>
+        <v>-36.53888326969717</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2928,7 +2922,7 @@
         <v>17</v>
       </c>
       <c r="F118">
-        <v>-30.111</v>
+        <v>-15.87473481021149</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2948,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="F119">
-        <v>-29.541</v>
+        <v>-27.74420285093311</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3128,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="F128">
-        <v>-27.356</v>
+        <v>-19.60737146699326</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3148,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="F129">
-        <v>-23.378</v>
+        <v>-35.34638326969717</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3168,7 +3162,7 @@
         <v>17</v>
       </c>
       <c r="F130">
-        <v>-28.745</v>
+        <v>-15.21023481021149</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3188,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="F131">
-        <v>-29.498</v>
+        <v>-27.74003618426644</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3248,7 +3242,7 @@
         <v>15</v>
       </c>
       <c r="F134">
-        <v>-27.434</v>
+        <v>-19.60737146699326</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3268,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="F135">
-        <v>-23.601</v>
+        <v>-35.34638326969717</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3288,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="F136">
-        <v>-28.826</v>
+        <v>-15.21023481021149</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3308,7 +3302,7 @@
         <v>18</v>
       </c>
       <c r="F137">
-        <v>-29.454</v>
+        <v>-27.74003618426644</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3368,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="F140">
-        <v>-27.43</v>
+        <v>-19.60737146699326</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3388,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="F141">
-        <v>-23.366</v>
+        <v>-35.34638326969717</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3408,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="F142">
-        <v>-28.709</v>
+        <v>-15.21023481021149</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3428,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="F143">
-        <v>-29.406</v>
+        <v>-27.74003618426644</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3608,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="F152">
-        <v>-27.44</v>
+        <v>-19.64103813365992</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3628,7 +3622,7 @@
         <v>16</v>
       </c>
       <c r="F153">
-        <v>-24.051</v>
+        <v>-35.76838326969717</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3648,7 +3642,7 @@
         <v>17</v>
       </c>
       <c r="F154">
-        <v>-28.928</v>
+        <v>-15.28740147687816</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3668,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="F155">
-        <v>-29.551</v>
+        <v>-27.73186951759978</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3728,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="F158">
-        <v>-27.546</v>
+        <v>-19.64103813365992</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3748,7 +3742,7 @@
         <v>16</v>
       </c>
       <c r="F159">
-        <v>-24.334</v>
+        <v>-35.76838326969717</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3768,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="F160">
-        <v>-28.942</v>
+        <v>-15.28740147687816</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3788,7 +3782,7 @@
         <v>18</v>
       </c>
       <c r="F161">
-        <v>-29.349</v>
+        <v>-27.73186951759978</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3848,7 +3842,7 @@
         <v>15</v>
       </c>
       <c r="F164">
-        <v>-27.436</v>
+        <v>-19.64103813365992</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3868,7 +3862,7 @@
         <v>16</v>
       </c>
       <c r="F165">
-        <v>-24.492</v>
+        <v>-35.76838326969717</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3888,7 +3882,7 @@
         <v>17</v>
       </c>
       <c r="F166">
-        <v>-28.873</v>
+        <v>-15.28740147687816</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3908,7 +3902,7 @@
         <v>18</v>
       </c>
       <c r="F167">
-        <v>-29.409</v>
+        <v>-27.73186951759978</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4088,7 +4082,7 @@
         <v>15</v>
       </c>
       <c r="F176">
-        <v>-26.481</v>
+        <v>-19.20253813365992</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4108,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="F177">
-        <v>-22.71</v>
+        <v>-35.11204993636384</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4128,7 +4122,7 @@
         <v>17</v>
       </c>
       <c r="F178">
-        <v>-28.211</v>
+        <v>-14.97006814354483</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4148,7 +4142,7 @@
         <v>18</v>
       </c>
       <c r="F179">
-        <v>-29.087</v>
+        <v>-27.57403618426644</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4208,7 +4202,7 @@
         <v>15</v>
       </c>
       <c r="F182">
-        <v>-26.68</v>
+        <v>-19.20253813365992</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4228,7 +4222,7 @@
         <v>16</v>
       </c>
       <c r="F183">
-        <v>-22.993</v>
+        <v>-35.11204993636384</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4248,7 +4242,7 @@
         <v>17</v>
       </c>
       <c r="F184">
-        <v>-28.293</v>
+        <v>-14.97006814354483</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4268,7 +4262,7 @@
         <v>18</v>
       </c>
       <c r="F185">
-        <v>-29.089</v>
+        <v>-27.57403618426644</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4328,7 +4322,7 @@
         <v>15</v>
       </c>
       <c r="F188">
-        <v>-26.63</v>
+        <v>-19.20253813365992</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4348,7 +4342,7 @@
         <v>16</v>
       </c>
       <c r="F189">
-        <v>-23.236</v>
+        <v>-35.11204993636384</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4368,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="F190">
-        <v>-28.335</v>
+        <v>-14.97006814354483</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4388,7 +4382,7 @@
         <v>18</v>
       </c>
       <c r="F191">
-        <v>-29.186</v>
+        <v>-27.57403618426644</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4568,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="F200">
-        <v>-27.73</v>
+        <v>-19.74953813365992</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4588,7 +4582,7 @@
         <v>16</v>
       </c>
       <c r="F201">
-        <v>-24.975</v>
+        <v>-36.04604993636384</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4608,7 +4602,7 @@
         <v>17</v>
       </c>
       <c r="F202">
-        <v>-29.917</v>
+        <v>-15.80873481021149</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4628,7 +4622,7 @@
         <v>18</v>
       </c>
       <c r="F203">
-        <v>-29.206</v>
+        <v>-27.65836951759977</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4688,7 +4682,7 @@
         <v>15</v>
       </c>
       <c r="F206">
-        <v>-27.665</v>
+        <v>-19.74953813365992</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4708,7 +4702,7 @@
         <v>16</v>
       </c>
       <c r="F207">
-        <v>-24.749</v>
+        <v>-36.04604993636384</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4728,7 +4722,7 @@
         <v>17</v>
       </c>
       <c r="F208">
-        <v>-29.932</v>
+        <v>-15.80873481021149</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4748,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="F209">
-        <v>-29.23</v>
+        <v>-27.65836951759977</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4808,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="F212">
-        <v>-27.678</v>
+        <v>-19.74953813365992</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4828,7 +4822,7 @@
         <v>16</v>
       </c>
       <c r="F213">
-        <v>-24.819</v>
+        <v>-36.04604993636384</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4848,7 +4842,7 @@
         <v>17</v>
       </c>
       <c r="F214">
-        <v>-30.022</v>
+        <v>-15.80873481021149</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4868,7 +4862,7 @@
         <v>18</v>
       </c>
       <c r="F215">
-        <v>-29.432</v>
+        <v>-27.65836951759977</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5048,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="F224">
-        <v>-26.917</v>
+        <v>-19.37137146699326</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5068,7 +5062,7 @@
         <v>16</v>
       </c>
       <c r="F225">
-        <v>-23.23</v>
+        <v>-35.21854993636384</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5088,7 +5082,7 @@
         <v>17</v>
       </c>
       <c r="F226">
-        <v>-28.062</v>
+        <v>-14.81623481021149</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5108,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="F227">
-        <v>-29.456</v>
+        <v>-27.73320285093311</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5168,7 +5162,7 @@
         <v>15</v>
       </c>
       <c r="F230">
-        <v>-26.987</v>
+        <v>-19.37137146699326</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5188,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="F231">
-        <v>-23.177</v>
+        <v>-35.21854993636384</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5208,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="F232">
-        <v>-27.912</v>
+        <v>-14.81623481021149</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5228,7 +5222,7 @@
         <v>18</v>
       </c>
       <c r="F233">
-        <v>-29.361</v>
+        <v>-27.73320285093311</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5288,7 +5282,7 @@
         <v>15</v>
       </c>
       <c r="F236">
-        <v>-26.9</v>
+        <v>-19.37137146699326</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5308,7 +5302,7 @@
         <v>16</v>
       </c>
       <c r="F237">
-        <v>-23.171</v>
+        <v>-35.21854993636384</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5328,7 +5322,7 @@
         <v>17</v>
       </c>
       <c r="F238">
-        <v>-27.942</v>
+        <v>-14.81623481021149</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5348,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="F239">
-        <v>-29.5</v>
+        <v>-27.73320285093311</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5528,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="F248">
-        <v>-26.607</v>
+        <v>-19.23737146699326</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5548,7 +5542,7 @@
         <v>16</v>
       </c>
       <c r="F249">
-        <v>-22.328</v>
+        <v>-34.82138326969717</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5568,7 +5562,7 @@
         <v>17</v>
       </c>
       <c r="F250">
-        <v>-28.494</v>
+        <v>-15.10023481021149</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5588,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="F251">
-        <v>-29.426</v>
+        <v>-27.73186951759978</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5648,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="F254">
-        <v>-26.661</v>
+        <v>-19.23737146699326</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5668,7 +5662,7 @@
         <v>16</v>
       </c>
       <c r="F255">
-        <v>-22.341</v>
+        <v>-34.82138326969717</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5688,7 +5682,7 @@
         <v>17</v>
       </c>
       <c r="F256">
-        <v>-28.59</v>
+        <v>-15.10023481021149</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5708,7 +5702,7 @@
         <v>18</v>
       </c>
       <c r="F257">
-        <v>-29.445</v>
+        <v>-27.73186951759978</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5768,7 +5762,7 @@
         <v>15</v>
       </c>
       <c r="F260">
-        <v>-26.732</v>
+        <v>-19.23737146699326</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5788,7 +5782,7 @@
         <v>16</v>
       </c>
       <c r="F261">
-        <v>-22.526</v>
+        <v>-34.82138326969717</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5808,7 +5802,7 @@
         <v>17</v>
       </c>
       <c r="F262">
-        <v>-28.536</v>
+        <v>-15.10023481021149</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5828,7 +5822,7 @@
         <v>18</v>
       </c>
       <c r="F263">
-        <v>-29.438</v>
+        <v>-27.73186951759978</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6008,7 +6002,7 @@
         <v>15</v>
       </c>
       <c r="F272">
-        <v>-26.828</v>
+        <v>-19.38003813365992</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6028,7 +6022,7 @@
         <v>16</v>
       </c>
       <c r="F273">
-        <v>-23.516</v>
+        <v>-35.3047166030305</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6048,7 +6042,7 @@
         <v>17</v>
       </c>
       <c r="F274">
-        <v>-28.382</v>
+        <v>-15.07290147687816</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6068,7 +6062,7 @@
         <v>18</v>
       </c>
       <c r="F275">
-        <v>-29.393</v>
+        <v>-27.71520285093311</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6128,7 +6122,7 @@
         <v>15</v>
       </c>
       <c r="F278">
-        <v>-26.964</v>
+        <v>-19.38003813365992</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6148,7 +6142,7 @@
         <v>16</v>
       </c>
       <c r="F279">
-        <v>-23.296</v>
+        <v>-35.3047166030305</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6168,7 +6162,7 @@
         <v>17</v>
       </c>
       <c r="F280">
-        <v>-28.54</v>
+        <v>-15.07290147687816</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6188,7 +6182,7 @@
         <v>18</v>
       </c>
       <c r="F281">
-        <v>-29.407</v>
+        <v>-27.71520285093311</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6248,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="F284">
-        <v>-27.064</v>
+        <v>-19.38003813365992</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6268,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="F285">
-        <v>-23.283</v>
+        <v>-35.3047166030305</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6288,7 +6282,7 @@
         <v>17</v>
       </c>
       <c r="F286">
-        <v>-28.534</v>
+        <v>-15.07290147687816</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6308,7 +6302,7 @@
         <v>18</v>
       </c>
       <c r="F287">
-        <v>-29.409</v>
+        <v>-27.71520285093311</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6488,7 +6482,7 @@
         <v>15</v>
       </c>
       <c r="F296">
-        <v>-26.85</v>
+        <v>-19.35253813365992</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6508,7 +6502,7 @@
         <v>16</v>
       </c>
       <c r="F297">
-        <v>-22.993</v>
+        <v>-35.18004993636384</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6528,7 +6522,7 @@
         <v>17</v>
       </c>
       <c r="F298">
-        <v>-27.78</v>
+        <v>-14.71473481021149</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6548,7 +6542,7 @@
         <v>18</v>
       </c>
       <c r="F299">
-        <v>-29.213</v>
+        <v>-27.61903618426644</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6608,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="F302">
-        <v>-26.896</v>
+        <v>-19.35253813365992</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6628,7 +6622,7 @@
         <v>16</v>
       </c>
       <c r="F303">
-        <v>-23.235</v>
+        <v>-35.18004993636384</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6648,7 +6642,7 @@
         <v>17</v>
       </c>
       <c r="F304">
-        <v>-27.713</v>
+        <v>-14.71473481021149</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6668,7 +6662,7 @@
         <v>18</v>
       </c>
       <c r="F305">
-        <v>-29.139</v>
+        <v>-27.61903618426644</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6728,7 +6722,7 @@
         <v>15</v>
       </c>
       <c r="F308">
-        <v>-26.945</v>
+        <v>-19.35253813365992</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6748,7 +6742,7 @@
         <v>16</v>
       </c>
       <c r="F309">
-        <v>-23.119</v>
+        <v>-35.18004993636384</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6768,7 +6762,7 @@
         <v>17</v>
       </c>
       <c r="F310">
-        <v>-27.814</v>
+        <v>-14.71473481021149</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6788,7 +6782,7 @@
         <v>18</v>
       </c>
       <c r="F311">
-        <v>-29.28</v>
+        <v>-27.61903618426644</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6958,13 +6952,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -6986,206 +6980,2114 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
-        <v>-26.52571428571429</v>
+        <v>-19.38003813365992</v>
       </c>
       <c r="D2">
-        <v>0.2803863895992951</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-25.866</v>
+        <v>-19.38003813365992</v>
       </c>
       <c r="F2">
-        <v>-26.13</v>
+        <v>-19.38003813365992</v>
       </c>
       <c r="G2">
-        <v>-26.275</v>
-      </c>
-      <c r="H2">
-        <v>-26.427</v>
-      </c>
-      <c r="I2">
-        <v>-26.455</v>
-      </c>
-      <c r="J2">
-        <v>-26.544</v>
-      </c>
-      <c r="K2">
-        <v>-26.64</v>
-      </c>
-      <c r="L2">
-        <v>-26.526</v>
-      </c>
-      <c r="M2">
-        <v>-26.586</v>
-      </c>
-      <c r="N2">
-        <v>-26.785</v>
-      </c>
-      <c r="O2">
-        <v>-26.756</v>
-      </c>
-      <c r="P2">
-        <v>-26.838</v>
-      </c>
-      <c r="Q2">
-        <v>-26.732</v>
-      </c>
-      <c r="R2">
-        <v>-26.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>-19.38003813365992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>-37.29314285714285</v>
+        <v>-35.3047166030305</v>
       </c>
       <c r="D3">
-        <v>0.2091561276039646</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-36.784</v>
+        <v>-35.3047166030305</v>
       </c>
       <c r="F3">
-        <v>-37.123</v>
+        <v>-35.3047166030305</v>
       </c>
       <c r="G3">
-        <v>-37.004</v>
-      </c>
-      <c r="H3">
-        <v>-37.357</v>
-      </c>
-      <c r="I3">
-        <v>-37.389</v>
-      </c>
-      <c r="J3">
-        <v>-37.289</v>
-      </c>
-      <c r="K3">
-        <v>-37.245</v>
-      </c>
-      <c r="L3">
-        <v>-37.239</v>
-      </c>
-      <c r="M3">
-        <v>-37.376</v>
-      </c>
-      <c r="N3">
-        <v>-37.534</v>
-      </c>
-      <c r="O3">
-        <v>-37.416</v>
-      </c>
-      <c r="P3">
-        <v>-37.382</v>
-      </c>
-      <c r="Q3">
-        <v>-37.579</v>
-      </c>
-      <c r="R3">
-        <v>-37.387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>-35.3047166030305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>-19.83871428571428</v>
+        <v>-15.07290147687816</v>
       </c>
       <c r="D4">
-        <v>0.1579183959525295</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="F4">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="G4">
+        <v>-15.07290147687816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>-19.38003813365992</v>
+      </c>
+      <c r="F2">
+        <v>-19.38003813365992</v>
+      </c>
+      <c r="G2">
+        <v>-19.38003813365992</v>
+      </c>
+      <c r="H2">
+        <v>-19.38003813365992</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>-35.3047166030305</v>
+      </c>
+      <c r="F3">
+        <v>-35.3047166030305</v>
+      </c>
+      <c r="G3">
+        <v>-35.3047166030305</v>
+      </c>
+      <c r="H3">
+        <v>-35.3047166030305</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="F4">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="G4">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="H4">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>-27.71520285093311</v>
+      </c>
+      <c r="F5">
+        <v>-27.71520285093311</v>
+      </c>
+      <c r="G5">
+        <v>-27.71520285093311</v>
+      </c>
+      <c r="H5">
+        <v>-27.71520285093311</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>-18.75653813365992</v>
+      </c>
+      <c r="F2">
+        <v>-18.75653813365992</v>
+      </c>
+      <c r="G2">
+        <v>-18.75653813365992</v>
+      </c>
+      <c r="H2">
+        <v>-18.75653813365992</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>-34.88638326969717</v>
+      </c>
+      <c r="F3">
+        <v>-34.88638326969717</v>
+      </c>
+      <c r="G3">
+        <v>-34.88638326969717</v>
+      </c>
+      <c r="H3">
+        <v>-34.88638326969717</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>-14.61923481021149</v>
+      </c>
+      <c r="F4">
+        <v>-14.61923481021149</v>
+      </c>
+      <c r="G4">
+        <v>-14.61923481021149</v>
+      </c>
+      <c r="H4">
+        <v>-14.61923481021149</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>-27.91303618426644</v>
+      </c>
+      <c r="F5">
+        <v>-27.91303618426644</v>
+      </c>
+      <c r="G5">
+        <v>-27.91303618426644</v>
+      </c>
+      <c r="H5">
+        <v>-27.91303618426643</v>
+      </c>
+      <c r="I5">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>-19.22070480032659</v>
+      </c>
+      <c r="F6">
+        <v>-19.22070480032659</v>
+      </c>
+      <c r="G6">
+        <v>-19.22070480032659</v>
+      </c>
+      <c r="H6">
+        <v>-19.22070480032659</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>-35.3767166030305</v>
+      </c>
+      <c r="F7">
+        <v>-35.3767166030305</v>
+      </c>
+      <c r="G7">
+        <v>-35.3767166030305</v>
+      </c>
+      <c r="H7">
+        <v>-35.3767166030305</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>-14.67956814354483</v>
+      </c>
+      <c r="F8">
+        <v>-14.67956814354483</v>
+      </c>
+      <c r="G8">
+        <v>-14.67956814354483</v>
+      </c>
+      <c r="H8">
+        <v>-14.67956814354483</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>-27.70803618426644</v>
+      </c>
+      <c r="F9">
+        <v>-27.70803618426644</v>
+      </c>
+      <c r="G9">
+        <v>-27.70803618426644</v>
+      </c>
+      <c r="H9">
+        <v>-27.70803618426644</v>
+      </c>
+      <c r="I9">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>-19.16637146699325</v>
+      </c>
+      <c r="F10">
+        <v>-19.16637146699325</v>
+      </c>
+      <c r="G10">
+        <v>-19.16637146699325</v>
+      </c>
+      <c r="H10">
+        <v>-19.16637146699325</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>-35.14138326969717</v>
+      </c>
+      <c r="F11">
+        <v>-35.14138326969717</v>
+      </c>
+      <c r="G11">
+        <v>-35.14138326969717</v>
+      </c>
+      <c r="H11">
+        <v>-35.14138326969717</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>-14.80840147687816</v>
+      </c>
+      <c r="F12">
+        <v>-14.80840147687816</v>
+      </c>
+      <c r="G12">
+        <v>-14.80840147687816</v>
+      </c>
+      <c r="H12">
+        <v>-14.80840147687816</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>-27.7957028509331</v>
+      </c>
+      <c r="F13">
+        <v>-27.7957028509331</v>
+      </c>
+      <c r="G13">
+        <v>-27.7957028509331</v>
+      </c>
+      <c r="H13">
+        <v>-27.7957028509331</v>
+      </c>
+      <c r="I13">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>-18.93470480032659</v>
+      </c>
+      <c r="F14">
+        <v>-18.93470480032659</v>
+      </c>
+      <c r="G14">
+        <v>-18.93470480032659</v>
+      </c>
+      <c r="H14">
+        <v>-18.93470480032659</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>-34.78854993636384</v>
+      </c>
+      <c r="F15">
+        <v>-34.78854993636384</v>
+      </c>
+      <c r="G15">
+        <v>-34.78854993636384</v>
+      </c>
+      <c r="H15">
+        <v>-34.78854993636384</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>-14.43990147687816</v>
+      </c>
+      <c r="F16">
+        <v>-14.43990147687816</v>
+      </c>
+      <c r="G16">
+        <v>-14.43990147687816</v>
+      </c>
+      <c r="H16">
+        <v>-14.43990147687816</v>
+      </c>
+      <c r="I16">
+        <v>1.77635683940025E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>-27.77320285093311</v>
+      </c>
+      <c r="F17">
+        <v>-27.77320285093311</v>
+      </c>
+      <c r="G17">
+        <v>-27.77320285093311</v>
+      </c>
+      <c r="H17">
+        <v>-27.77320285093311</v>
+      </c>
+      <c r="I17">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>-19.96720480032659</v>
+      </c>
+      <c r="F18">
+        <v>-19.96720480032659</v>
+      </c>
+      <c r="G18">
+        <v>-19.96720480032659</v>
+      </c>
+      <c r="H18">
+        <v>-19.96720480032659</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>-36.53888326969717</v>
+      </c>
+      <c r="F19">
+        <v>-36.53888326969717</v>
+      </c>
+      <c r="G19">
+        <v>-36.53888326969717</v>
+      </c>
+      <c r="H19">
+        <v>-36.53888326969717</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>-15.87473481021149</v>
+      </c>
+      <c r="F20">
+        <v>-15.87473481021149</v>
+      </c>
+      <c r="G20">
+        <v>-15.87473481021149</v>
+      </c>
+      <c r="H20">
+        <v>-15.87473481021149</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>-27.74420285093311</v>
+      </c>
+      <c r="F21">
+        <v>-27.74420285093311</v>
+      </c>
+      <c r="G21">
+        <v>-27.74420285093311</v>
+      </c>
+      <c r="H21">
+        <v>-27.74420285093311</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>-19.60737146699326</v>
+      </c>
+      <c r="F22">
+        <v>-19.60737146699326</v>
+      </c>
+      <c r="G22">
+        <v>-19.60737146699326</v>
+      </c>
+      <c r="H22">
+        <v>-19.60737146699326</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>-35.34638326969717</v>
+      </c>
+      <c r="F23">
+        <v>-35.34638326969717</v>
+      </c>
+      <c r="G23">
+        <v>-35.34638326969717</v>
+      </c>
+      <c r="H23">
+        <v>-35.34638326969717</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>-15.21023481021149</v>
+      </c>
+      <c r="F24">
+        <v>-15.21023481021149</v>
+      </c>
+      <c r="G24">
+        <v>-15.21023481021149</v>
+      </c>
+      <c r="H24">
+        <v>-15.21023481021149</v>
+      </c>
+      <c r="I24">
+        <v>1.77635683940025E-15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>-27.74003618426644</v>
+      </c>
+      <c r="F25">
+        <v>-27.74003618426644</v>
+      </c>
+      <c r="G25">
+        <v>-27.74003618426644</v>
+      </c>
+      <c r="H25">
+        <v>-27.74003618426644</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>-19.64103813365992</v>
+      </c>
+      <c r="F26">
+        <v>-19.64103813365992</v>
+      </c>
+      <c r="G26">
+        <v>-19.64103813365992</v>
+      </c>
+      <c r="H26">
+        <v>-19.64103813365992</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>-35.76838326969717</v>
+      </c>
+      <c r="F27">
+        <v>-35.76838326969717</v>
+      </c>
+      <c r="G27">
+        <v>-35.76838326969717</v>
+      </c>
+      <c r="H27">
+        <v>-35.76838326969717</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>-15.28740147687816</v>
+      </c>
+      <c r="F28">
+        <v>-15.28740147687816</v>
+      </c>
+      <c r="G28">
+        <v>-15.28740147687816</v>
+      </c>
+      <c r="H28">
+        <v>-15.28740147687816</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="F29">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="G29">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="H29">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>-19.20253813365992</v>
+      </c>
+      <c r="F30">
+        <v>-19.20253813365992</v>
+      </c>
+      <c r="G30">
+        <v>-19.20253813365992</v>
+      </c>
+      <c r="H30">
+        <v>-19.20253813365992</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>-35.11204993636384</v>
+      </c>
+      <c r="F31">
+        <v>-35.11204993636384</v>
+      </c>
+      <c r="G31">
+        <v>-35.11204993636384</v>
+      </c>
+      <c r="H31">
+        <v>-35.11204993636384</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>-14.97006814354483</v>
+      </c>
+      <c r="F32">
+        <v>-14.97006814354483</v>
+      </c>
+      <c r="G32">
+        <v>-14.97006814354483</v>
+      </c>
+      <c r="H32">
+        <v>-14.97006814354483</v>
+      </c>
+      <c r="I32">
+        <v>1.77635683940025E-15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>-27.57403618426644</v>
+      </c>
+      <c r="F33">
+        <v>-27.57403618426644</v>
+      </c>
+      <c r="G33">
+        <v>-27.57403618426644</v>
+      </c>
+      <c r="H33">
+        <v>-27.57403618426644</v>
+      </c>
+      <c r="I33">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>-19.74953813365992</v>
+      </c>
+      <c r="F34">
+        <v>-19.74953813365992</v>
+      </c>
+      <c r="G34">
+        <v>-19.74953813365992</v>
+      </c>
+      <c r="H34">
+        <v>-19.74953813365992</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>-36.04604993636384</v>
+      </c>
+      <c r="F35">
+        <v>-36.04604993636384</v>
+      </c>
+      <c r="G35">
+        <v>-36.04604993636384</v>
+      </c>
+      <c r="H35">
+        <v>-36.04604993636384</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>-15.80873481021149</v>
+      </c>
+      <c r="F36">
+        <v>-15.80873481021149</v>
+      </c>
+      <c r="G36">
+        <v>-15.80873481021149</v>
+      </c>
+      <c r="H36">
+        <v>-15.8087348102115</v>
+      </c>
+      <c r="I36">
+        <v>1.77635683940025E-15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>-27.65836951759977</v>
+      </c>
+      <c r="F37">
+        <v>-27.65836951759977</v>
+      </c>
+      <c r="G37">
+        <v>-27.65836951759977</v>
+      </c>
+      <c r="H37">
+        <v>-27.65836951759978</v>
+      </c>
+      <c r="I37">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>-19.37137146699326</v>
+      </c>
+      <c r="F38">
+        <v>-19.37137146699326</v>
+      </c>
+      <c r="G38">
+        <v>-19.37137146699326</v>
+      </c>
+      <c r="H38">
+        <v>-19.37137146699326</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>-35.21854993636384</v>
+      </c>
+      <c r="F39">
+        <v>-35.21854993636384</v>
+      </c>
+      <c r="G39">
+        <v>-35.21854993636384</v>
+      </c>
+      <c r="H39">
+        <v>-35.21854993636384</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>-14.81623481021149</v>
+      </c>
+      <c r="F40">
+        <v>-14.81623481021149</v>
+      </c>
+      <c r="G40">
+        <v>-14.81623481021149</v>
+      </c>
+      <c r="H40">
+        <v>-14.81623481021149</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>-27.73320285093311</v>
+      </c>
+      <c r="F41">
+        <v>-27.73320285093311</v>
+      </c>
+      <c r="G41">
+        <v>-27.73320285093311</v>
+      </c>
+      <c r="H41">
+        <v>-27.73320285093311</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>-19.23737146699326</v>
+      </c>
+      <c r="F42">
+        <v>-19.23737146699326</v>
+      </c>
+      <c r="G42">
+        <v>-19.23737146699326</v>
+      </c>
+      <c r="H42">
+        <v>-19.23737146699326</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>-34.82138326969717</v>
+      </c>
+      <c r="F43">
+        <v>-34.82138326969717</v>
+      </c>
+      <c r="G43">
+        <v>-34.82138326969717</v>
+      </c>
+      <c r="H43">
+        <v>-34.82138326969717</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>-15.10023481021149</v>
+      </c>
+      <c r="F44">
+        <v>-15.10023481021149</v>
+      </c>
+      <c r="G44">
+        <v>-15.10023481021149</v>
+      </c>
+      <c r="H44">
+        <v>-15.10023481021149</v>
+      </c>
+      <c r="I44">
+        <v>1.77635683940025E-15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="F45">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="G45">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="H45">
+        <v>-27.73186951759978</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>-19.35253813365992</v>
+      </c>
+      <c r="F46">
+        <v>-19.35253813365992</v>
+      </c>
+      <c r="G46">
+        <v>-19.35253813365992</v>
+      </c>
+      <c r="H46">
+        <v>-19.35253813365992</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>-35.18004993636384</v>
+      </c>
+      <c r="F47">
+        <v>-35.18004993636384</v>
+      </c>
+      <c r="G47">
+        <v>-35.18004993636384</v>
+      </c>
+      <c r="H47">
+        <v>-35.18004993636384</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>-14.71473481021149</v>
+      </c>
+      <c r="F48">
+        <v>-14.71473481021149</v>
+      </c>
+      <c r="G48">
+        <v>-14.71473481021149</v>
+      </c>
+      <c r="H48">
+        <v>-14.71473481021149</v>
+      </c>
+      <c r="I48">
+        <v>1.77635683940025E-15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>-27.61903618426644</v>
+      </c>
+      <c r="F49">
+        <v>-27.61903618426644</v>
+      </c>
+      <c r="G49">
+        <v>-27.61903618426644</v>
+      </c>
+      <c r="H49">
+        <v>-27.61903618426645</v>
+      </c>
+      <c r="I49">
+        <v>3.552713678800501E-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-25.866</v>
+      </c>
+      <c r="E2">
+        <v>-28.675</v>
+      </c>
+      <c r="F2">
+        <v>-36.784</v>
+      </c>
+      <c r="G2">
+        <v>-23.837</v>
+      </c>
+      <c r="H2">
         <v>-19.433</v>
       </c>
+      <c r="I2">
+        <v>-30.103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-18.75653813365992</v>
+      </c>
+      <c r="E3">
+        <v>-28.916</v>
+      </c>
+      <c r="F3">
+        <v>-34.88638326969717</v>
+      </c>
+      <c r="G3">
+        <v>-23.963</v>
+      </c>
+      <c r="H3">
+        <v>-14.61923481021149</v>
+      </c>
+      <c r="I3">
+        <v>-27.91303618426644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>-19.22070480032659</v>
+      </c>
+      <c r="E4">
+        <v>-29.14</v>
+      </c>
       <c r="F4">
-        <v>-19.641</v>
+        <v>-35.3767166030305</v>
       </c>
       <c r="G4">
-        <v>-19.705</v>
+        <v>-23.906</v>
       </c>
       <c r="H4">
-        <v>-19.825</v>
+        <v>-14.67956814354483</v>
       </c>
       <c r="I4">
-        <v>-19.914</v>
-      </c>
-      <c r="J4">
-        <v>-19.881</v>
-      </c>
-      <c r="K4">
-        <v>-19.946</v>
-      </c>
-      <c r="L4">
-        <v>-19.855</v>
-      </c>
-      <c r="M4">
-        <v>-19.805</v>
-      </c>
-      <c r="N4">
-        <v>-19.865</v>
-      </c>
-      <c r="O4">
-        <v>-19.967</v>
-      </c>
-      <c r="P4">
-        <v>-20.037</v>
-      </c>
-      <c r="Q4">
-        <v>-19.995</v>
-      </c>
-      <c r="R4">
-        <v>-19.873</v>
+        <v>-27.70803618426644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>-19.16637146699325</v>
+      </c>
+      <c r="E5">
+        <v>-29.371</v>
+      </c>
+      <c r="F5">
+        <v>-35.14138326969717</v>
+      </c>
+      <c r="G5">
+        <v>-23.959</v>
+      </c>
+      <c r="H5">
+        <v>-14.80840147687816</v>
+      </c>
+      <c r="I5">
+        <v>-27.7957028509331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>-18.93470480032659</v>
+      </c>
+      <c r="E6">
+        <v>-29.257</v>
+      </c>
+      <c r="F6">
+        <v>-34.78854993636384</v>
+      </c>
+      <c r="G6">
+        <v>-23.933</v>
+      </c>
+      <c r="H6">
+        <v>-14.43990147687816</v>
+      </c>
+      <c r="I6">
+        <v>-27.77320285093311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>-19.96720480032659</v>
+      </c>
+      <c r="E7">
+        <v>-29.285</v>
+      </c>
+      <c r="F7">
+        <v>-36.53888326969717</v>
+      </c>
+      <c r="G7">
+        <v>-23.906</v>
+      </c>
+      <c r="H7">
+        <v>-15.87473481021149</v>
+      </c>
+      <c r="I7">
+        <v>-27.74420285093311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-19.60737146699326</v>
+      </c>
+      <c r="E8">
+        <v>-29.139</v>
+      </c>
+      <c r="F8">
+        <v>-35.34638326969717</v>
+      </c>
+      <c r="G8">
+        <v>-23.915</v>
+      </c>
+      <c r="H8">
+        <v>-15.21023481021149</v>
+      </c>
+      <c r="I8">
+        <v>-27.74003618426644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>-19.64103813365992</v>
+      </c>
+      <c r="E9">
+        <v>-29.092</v>
+      </c>
+      <c r="F9">
+        <v>-35.76838326969717</v>
+      </c>
+      <c r="G9">
+        <v>-23.971</v>
+      </c>
+      <c r="H9">
+        <v>-15.28740147687816</v>
+      </c>
+      <c r="I9">
+        <v>-27.73186951759978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>-19.20253813365992</v>
+      </c>
+      <c r="E10">
+        <v>-29.173</v>
+      </c>
+      <c r="F10">
+        <v>-35.11204993636384</v>
+      </c>
+      <c r="G10">
+        <v>-23.904</v>
+      </c>
+      <c r="H10">
+        <v>-14.97006814354483</v>
+      </c>
+      <c r="I10">
+        <v>-27.57403618426644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>-19.74953813365992</v>
+      </c>
+      <c r="E11">
+        <v>-29.178</v>
+      </c>
+      <c r="F11">
+        <v>-36.04604993636384</v>
+      </c>
+      <c r="G11">
+        <v>-23.891</v>
+      </c>
+      <c r="H11">
+        <v>-15.80873481021149</v>
+      </c>
+      <c r="I11">
+        <v>-27.65836951759977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>-19.37137146699326</v>
+      </c>
+      <c r="E12">
+        <v>-29.14</v>
+      </c>
+      <c r="F12">
+        <v>-35.21854993636384</v>
+      </c>
+      <c r="G12">
+        <v>-23.968</v>
+      </c>
+      <c r="H12">
+        <v>-14.81623481021149</v>
+      </c>
+      <c r="I12">
+        <v>-27.73320285093311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>-19.23737146699326</v>
+      </c>
+      <c r="E13">
+        <v>-29.066</v>
+      </c>
+      <c r="F13">
+        <v>-34.82138326969717</v>
+      </c>
+      <c r="G13">
+        <v>-24.07</v>
+      </c>
+      <c r="H13">
+        <v>-15.10023481021149</v>
+      </c>
+      <c r="I13">
+        <v>-27.73186951759978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>-19.38003813365992</v>
+      </c>
+      <c r="E14">
+        <v>-29.065</v>
+      </c>
+      <c r="F14">
+        <v>-35.3047166030305</v>
+      </c>
+      <c r="G14">
+        <v>-24.106</v>
+      </c>
+      <c r="H14">
+        <v>-15.07290147687816</v>
+      </c>
+      <c r="I14">
+        <v>-27.71520285093311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>-19.35253813365992</v>
+      </c>
+      <c r="E15">
+        <v>-28.984</v>
+      </c>
+      <c r="F15">
+        <v>-35.18004993636384</v>
+      </c>
+      <c r="G15">
+        <v>-24.049</v>
+      </c>
+      <c r="H15">
+        <v>-14.71473481021149</v>
+      </c>
+      <c r="I15">
+        <v>-27.61903618426644</v>
       </c>
     </row>
   </sheetData>

--- a/out/18Sept19.xlsx
+++ b/out/18Sept19.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="49">
   <si>
     <t>18Sept19</t>
   </si>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <v>-18.75653813365992</v>
+        <v>-18.74153813365992</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="F9">
-        <v>-34.88638326969717</v>
+        <v>-35.0552166030305</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -762,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>-14.61923481021149</v>
+        <v>-14.58423481021149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -782,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>-27.91303618426644</v>
+        <v>-27.97470285093311</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>-18.75653813365992</v>
+        <v>-18.78003813365992</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="F15">
-        <v>-34.88638326969717</v>
+        <v>-34.9652166030305</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -882,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="F16">
-        <v>-14.61923481021149</v>
+        <v>-14.62273481021149</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -902,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>-27.91303618426644</v>
+        <v>-27.91520285093311</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,7 +962,7 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>-18.75653813365992</v>
+        <v>-18.74803813365992</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -982,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="F21">
-        <v>-34.88638326969717</v>
+        <v>-34.6387166030305</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1002,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="F22">
-        <v>-14.61923481021149</v>
+        <v>-14.65073481021149</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="F23">
-        <v>-27.91303618426644</v>
+        <v>-27.84920285093311</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1202,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>-19.22070480032659</v>
+        <v>-19.16403813365992</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1222,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="F33">
-        <v>-35.3767166030305</v>
+        <v>-35.4392166030305</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1242,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="F34">
-        <v>-14.67956814354483</v>
+        <v>-14.67173481021149</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1262,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="F35">
-        <v>-27.70803618426644</v>
+        <v>-27.72520285093311</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1322,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="F38">
-        <v>-19.22070480032659</v>
+        <v>-19.25803813365992</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1342,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>-35.3767166030305</v>
+        <v>-35.3382166030305</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="F40">
-        <v>-14.67956814354483</v>
+        <v>-14.66723481021149</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>-27.70803618426644</v>
+        <v>-27.67220285093311</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1442,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>-19.22070480032659</v>
+        <v>-19.24003813365992</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1462,7 +1462,7 @@
         <v>16</v>
       </c>
       <c r="F45">
-        <v>-35.3767166030305</v>
+        <v>-35.3527166030305</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="F46">
-        <v>-14.67956814354483</v>
+        <v>-14.69973481021149</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1502,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="F47">
-        <v>-27.70803618426644</v>
+        <v>-27.72670285093311</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1682,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>-19.16637146699325</v>
+        <v>-19.13003813365992</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1702,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="F57">
-        <v>-35.14138326969717</v>
+        <v>-35.0557166030305</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="F58">
-        <v>-14.80840147687816</v>
+        <v>-14.75973481021149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="F59">
-        <v>-27.7957028509331</v>
+        <v>-27.74620285093311</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1802,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="F62">
-        <v>-19.16637146699325</v>
+        <v>-19.16103813365992</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="F63">
-        <v>-35.14138326969717</v>
+        <v>-35.1107166030305</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1842,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="F64">
-        <v>-14.80840147687816</v>
+        <v>-14.82223481021149</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1862,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="F65">
-        <v>-27.7957028509331</v>
+        <v>-27.77920285093311</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1922,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="F68">
-        <v>-19.16637146699325</v>
+        <v>-19.20803813365992</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1942,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="F69">
-        <v>-35.14138326969717</v>
+        <v>-35.2577166030305</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1962,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="F70">
-        <v>-14.80840147687816</v>
+        <v>-14.84323481021149</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1982,7 +1982,7 @@
         <v>18</v>
       </c>
       <c r="F71">
-        <v>-27.7957028509331</v>
+        <v>-27.86170285093311</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2162,7 +2162,7 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>-18.93470480032659</v>
+        <v>-18.89853813365992</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2182,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="F81">
-        <v>-34.78854993636384</v>
+        <v>-34.6962166030305</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2202,7 +2202,7 @@
         <v>17</v>
       </c>
       <c r="F82">
-        <v>-14.43990147687816</v>
+        <v>-14.44073481021149</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2222,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="F83">
-        <v>-27.77320285093311</v>
+        <v>-27.77620285093311</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2282,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="F86">
-        <v>-18.93470480032659</v>
+        <v>-18.91503813365992</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2302,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="F87">
-        <v>-34.78854993636384</v>
+        <v>-34.8652166030305</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2322,7 +2322,7 @@
         <v>17</v>
       </c>
       <c r="F88">
-        <v>-14.43990147687816</v>
+        <v>-14.44523481021149</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2342,7 +2342,7 @@
         <v>18</v>
       </c>
       <c r="F89">
-        <v>-27.77320285093311</v>
+        <v>-27.7572028509331</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2402,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="F92">
-        <v>-18.93470480032659</v>
+        <v>-18.99053813365992</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2422,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="F93">
-        <v>-34.78854993636384</v>
+        <v>-34.8042166030305</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="F94">
-        <v>-14.43990147687816</v>
+        <v>-14.43373481021149</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F95">
-        <v>-27.77320285093311</v>
+        <v>-27.78620285093311</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="F104">
-        <v>-19.96720480032659</v>
+        <v>-19.94353813365992</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2662,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="F105">
-        <v>-36.53888326969717</v>
+        <v>-36.5037166030305</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2682,7 +2682,7 @@
         <v>17</v>
       </c>
       <c r="F106">
-        <v>-15.87473481021149</v>
+        <v>-15.85923481021149</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2702,7 +2702,7 @@
         <v>18</v>
       </c>
       <c r="F107">
-        <v>-27.74420285093311</v>
+        <v>-27.72370285093311</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2762,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>-19.96720480032659</v>
+        <v>-19.99053813365992</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2782,7 +2782,7 @@
         <v>16</v>
       </c>
       <c r="F111">
-        <v>-36.53888326969717</v>
+        <v>-36.4647166030305</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2802,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="F112">
-        <v>-15.87473481021149</v>
+        <v>-15.87923481021149</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2822,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="F113">
-        <v>-27.74420285093311</v>
+        <v>-27.72470285093311</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2882,7 +2882,7 @@
         <v>15</v>
       </c>
       <c r="F116">
-        <v>-19.96720480032659</v>
+        <v>-19.96753813365992</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2902,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="F117">
-        <v>-36.53888326969717</v>
+        <v>-36.64821660303051</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2922,7 +2922,7 @@
         <v>17</v>
       </c>
       <c r="F118">
-        <v>-15.87473481021149</v>
+        <v>-15.88573481021149</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
       <c r="F119">
-        <v>-27.74420285093311</v>
+        <v>-27.78420285093311</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3122,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="F128">
-        <v>-19.60737146699326</v>
+        <v>-19.58203813365992</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3142,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="F129">
-        <v>-35.34638326969717</v>
+        <v>-35.3112166030305</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3162,7 +3162,7 @@
         <v>17</v>
       </c>
       <c r="F130">
-        <v>-15.21023481021149</v>
+        <v>-15.20273481021149</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3182,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="F131">
-        <v>-27.74003618426644</v>
+        <v>-27.76270285093311</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3242,7 +3242,7 @@
         <v>15</v>
       </c>
       <c r="F134">
-        <v>-19.60737146699326</v>
+        <v>-19.62103813365992</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3262,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="F135">
-        <v>-35.34638326969717</v>
+        <v>-35.4227166030305</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3282,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="F136">
-        <v>-15.21023481021149</v>
+        <v>-15.24323481021149</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3302,7 +3302,7 @@
         <v>18</v>
       </c>
       <c r="F137">
-        <v>-27.74003618426644</v>
+        <v>-27.74070285093311</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3362,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="F140">
-        <v>-19.60737146699326</v>
+        <v>-19.61903813365992</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3382,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="F141">
-        <v>-35.34638326969717</v>
+        <v>-35.3052166030305</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3402,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="F142">
-        <v>-15.21023481021149</v>
+        <v>-15.18473481021149</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3422,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="F143">
-        <v>-27.74003618426644</v>
+        <v>-27.71670285093311</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3602,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="F152">
-        <v>-19.64103813365992</v>
+        <v>-19.62403813365992</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3622,7 +3622,7 @@
         <v>16</v>
       </c>
       <c r="F153">
-        <v>-35.76838326969717</v>
+        <v>-35.6477166030305</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3642,7 +3642,7 @@
         <v>17</v>
       </c>
       <c r="F154">
-        <v>-15.28740147687816</v>
+        <v>-15.29423481021149</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3662,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="F155">
-        <v>-27.73186951759978</v>
+        <v>-27.78920285093311</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3722,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="F158">
-        <v>-19.64103813365992</v>
+        <v>-19.67703813365992</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3742,7 +3742,7 @@
         <v>16</v>
       </c>
       <c r="F159">
-        <v>-35.76838326969717</v>
+        <v>-35.7892166030305</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3762,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="F160">
-        <v>-15.28740147687816</v>
+        <v>-15.30123481021149</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3782,7 +3782,7 @@
         <v>18</v>
       </c>
       <c r="F161">
-        <v>-27.73186951759978</v>
+        <v>-27.68820285093311</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3842,7 +3842,7 @@
         <v>15</v>
       </c>
       <c r="F164">
-        <v>-19.64103813365992</v>
+        <v>-19.62203813365992</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3862,7 +3862,7 @@
         <v>16</v>
       </c>
       <c r="F165">
-        <v>-35.76838326969717</v>
+        <v>-35.8682166030305</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3882,7 +3882,7 @@
         <v>17</v>
       </c>
       <c r="F166">
-        <v>-15.28740147687816</v>
+        <v>-15.26673481021149</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3902,7 +3902,7 @@
         <v>18</v>
       </c>
       <c r="F167">
-        <v>-27.73186951759978</v>
+        <v>-27.71820285093311</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4082,7 +4082,7 @@
         <v>15</v>
       </c>
       <c r="F176">
-        <v>-19.20253813365992</v>
+        <v>-19.14453813365992</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="F177">
-        <v>-35.11204993636384</v>
+        <v>-34.9772166030305</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4122,7 +4122,7 @@
         <v>17</v>
       </c>
       <c r="F178">
-        <v>-14.97006814354483</v>
+        <v>-14.93573481021149</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4142,7 +4142,7 @@
         <v>18</v>
       </c>
       <c r="F179">
-        <v>-27.57403618426644</v>
+        <v>-27.55720285093311</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4202,7 +4202,7 @@
         <v>15</v>
       </c>
       <c r="F182">
-        <v>-19.20253813365992</v>
+        <v>-19.24403813365992</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4222,7 +4222,7 @@
         <v>16</v>
       </c>
       <c r="F183">
-        <v>-35.11204993636384</v>
+        <v>-35.1187166030305</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4242,7 +4242,7 @@
         <v>17</v>
       </c>
       <c r="F184">
-        <v>-14.97006814354483</v>
+        <v>-14.97673481021149</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4262,7 +4262,7 @@
         <v>18</v>
       </c>
       <c r="F185">
-        <v>-27.57403618426644</v>
+        <v>-27.55820285093311</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4322,7 +4322,7 @@
         <v>15</v>
       </c>
       <c r="F188">
-        <v>-19.20253813365992</v>
+        <v>-19.21903813365992</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4342,7 +4342,7 @@
         <v>16</v>
       </c>
       <c r="F189">
-        <v>-35.11204993636384</v>
+        <v>-35.2402166030305</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4362,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="F190">
-        <v>-14.97006814354483</v>
+        <v>-14.99773481021149</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4382,7 +4382,7 @@
         <v>18</v>
       </c>
       <c r="F191">
-        <v>-27.57403618426644</v>
+        <v>-27.60670285093311</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4562,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="F200">
-        <v>-19.74953813365992</v>
+        <v>-19.76903813365992</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4582,7 +4582,7 @@
         <v>16</v>
       </c>
       <c r="F201">
-        <v>-36.04604993636384</v>
+        <v>-36.10971660303051</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4602,7 +4602,7 @@
         <v>17</v>
       </c>
       <c r="F202">
-        <v>-15.80873481021149</v>
+        <v>-15.78873481021149</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4622,7 +4622,7 @@
         <v>18</v>
       </c>
       <c r="F203">
-        <v>-27.65836951759977</v>
+        <v>-27.61670285093311</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4682,7 +4682,7 @@
         <v>15</v>
       </c>
       <c r="F206">
-        <v>-19.74953813365992</v>
+        <v>-19.73653813365992</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4702,7 +4702,7 @@
         <v>16</v>
       </c>
       <c r="F207">
-        <v>-36.04604993636384</v>
+        <v>-35.9967166030305</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4722,7 +4722,7 @@
         <v>17</v>
       </c>
       <c r="F208">
-        <v>-15.80873481021149</v>
+        <v>-15.79623481021149</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4742,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="F209">
-        <v>-27.65836951759977</v>
+        <v>-27.62870285093311</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4802,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="F212">
-        <v>-19.74953813365992</v>
+        <v>-19.74303813365992</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4822,7 +4822,7 @@
         <v>16</v>
       </c>
       <c r="F213">
-        <v>-36.04604993636384</v>
+        <v>-36.0317166030305</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4842,7 +4842,7 @@
         <v>17</v>
       </c>
       <c r="F214">
-        <v>-15.80873481021149</v>
+        <v>-15.84123481021149</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4862,7 +4862,7 @@
         <v>18</v>
       </c>
       <c r="F215">
-        <v>-27.65836951759977</v>
+        <v>-27.72970285093311</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5042,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="F224">
-        <v>-19.37137146699326</v>
+        <v>-19.36253813365992</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5062,7 +5062,7 @@
         <v>16</v>
       </c>
       <c r="F225">
-        <v>-35.21854993636384</v>
+        <v>-35.2372166030305</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5082,7 +5082,7 @@
         <v>17</v>
       </c>
       <c r="F226">
-        <v>-14.81623481021149</v>
+        <v>-14.86123481021149</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5102,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="F227">
-        <v>-27.73320285093311</v>
+        <v>-27.74170285093311</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5162,7 +5162,7 @@
         <v>15</v>
       </c>
       <c r="F230">
-        <v>-19.37137146699326</v>
+        <v>-19.39753813365992</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5182,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="F231">
-        <v>-35.21854993636384</v>
+        <v>-35.21071660303051</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5202,7 +5202,7 @@
         <v>17</v>
       </c>
       <c r="F232">
-        <v>-14.81623481021149</v>
+        <v>-14.78623481021149</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5222,7 +5222,7 @@
         <v>18</v>
       </c>
       <c r="F233">
-        <v>-27.73320285093311</v>
+        <v>-27.69420285093311</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5282,7 +5282,7 @@
         <v>15</v>
       </c>
       <c r="F236">
-        <v>-19.37137146699326</v>
+        <v>-19.35403813365992</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5302,7 +5302,7 @@
         <v>16</v>
       </c>
       <c r="F237">
-        <v>-35.21854993636384</v>
+        <v>-35.20771660303051</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5322,7 +5322,7 @@
         <v>17</v>
       </c>
       <c r="F238">
-        <v>-14.81623481021149</v>
+        <v>-14.80123481021149</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5342,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="F239">
-        <v>-27.73320285093311</v>
+        <v>-27.76370285093311</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5522,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="F248">
-        <v>-19.23737146699326</v>
+        <v>-19.20753813365992</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5542,7 +5542,7 @@
         <v>16</v>
       </c>
       <c r="F249">
-        <v>-34.82138326969717</v>
+        <v>-34.7862166030305</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5562,7 +5562,7 @@
         <v>17</v>
       </c>
       <c r="F250">
-        <v>-15.10023481021149</v>
+        <v>-15.07723481021149</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5582,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="F251">
-        <v>-27.73186951759978</v>
+        <v>-27.72670285093311</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5642,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="F254">
-        <v>-19.23737146699326</v>
+        <v>-19.23453813365992</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5662,7 +5662,7 @@
         <v>16</v>
       </c>
       <c r="F255">
-        <v>-34.82138326969717</v>
+        <v>-34.7927166030305</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5682,7 +5682,7 @@
         <v>17</v>
       </c>
       <c r="F256">
-        <v>-15.10023481021149</v>
+        <v>-15.12523481021149</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5702,7 +5702,7 @@
         <v>18</v>
       </c>
       <c r="F257">
-        <v>-27.73186951759978</v>
+        <v>-27.73620285093311</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5762,7 +5762,7 @@
         <v>15</v>
       </c>
       <c r="F260">
-        <v>-19.23737146699326</v>
+        <v>-19.27003813365992</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5782,7 +5782,7 @@
         <v>16</v>
       </c>
       <c r="F261">
-        <v>-34.82138326969717</v>
+        <v>-34.8852166030305</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5802,7 +5802,7 @@
         <v>17</v>
       </c>
       <c r="F262">
-        <v>-15.10023481021149</v>
+        <v>-15.09823481021149</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5822,7 +5822,7 @@
         <v>18</v>
       </c>
       <c r="F263">
-        <v>-27.73186951759978</v>
+        <v>-27.73270285093311</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6002,7 +6002,7 @@
         <v>15</v>
       </c>
       <c r="F272">
-        <v>-19.38003813365992</v>
+        <v>-19.31803813365992</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6022,7 +6022,7 @@
         <v>16</v>
       </c>
       <c r="F273">
-        <v>-35.3047166030305</v>
+        <v>-35.3802166030305</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6042,7 +6042,7 @@
         <v>17</v>
       </c>
       <c r="F274">
-        <v>-15.07290147687816</v>
+        <v>-15.02123481021149</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6062,7 +6062,7 @@
         <v>18</v>
       </c>
       <c r="F275">
-        <v>-27.71520285093311</v>
+        <v>-27.71020285093311</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6122,7 +6122,7 @@
         <v>15</v>
       </c>
       <c r="F278">
-        <v>-19.38003813365992</v>
+        <v>-19.38603813365992</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6142,7 +6142,7 @@
         <v>16</v>
       </c>
       <c r="F279">
-        <v>-35.3047166030305</v>
+        <v>-35.27021660303051</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6162,7 +6162,7 @@
         <v>17</v>
       </c>
       <c r="F280">
-        <v>-15.07290147687816</v>
+        <v>-15.10023481021149</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6182,7 +6182,7 @@
         <v>18</v>
       </c>
       <c r="F281">
-        <v>-27.71520285093311</v>
+        <v>-27.71720285093311</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6242,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="F284">
-        <v>-19.38003813365992</v>
+        <v>-19.43603813365992</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6262,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="F285">
-        <v>-35.3047166030305</v>
+        <v>-35.2637166030305</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6282,7 +6282,7 @@
         <v>17</v>
       </c>
       <c r="F286">
-        <v>-15.07290147687816</v>
+        <v>-15.09723481021149</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6302,7 +6302,7 @@
         <v>18</v>
       </c>
       <c r="F287">
-        <v>-27.71520285093311</v>
+        <v>-27.71820285093311</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6482,7 +6482,7 @@
         <v>15</v>
       </c>
       <c r="F296">
-        <v>-19.35253813365992</v>
+        <v>-19.32903813365992</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6502,7 +6502,7 @@
         <v>16</v>
       </c>
       <c r="F297">
-        <v>-35.18004993636384</v>
+        <v>-35.1187166030305</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6522,7 +6522,7 @@
         <v>17</v>
       </c>
       <c r="F298">
-        <v>-14.71473481021149</v>
+        <v>-14.72023481021149</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6542,7 +6542,7 @@
         <v>18</v>
       </c>
       <c r="F299">
-        <v>-27.61903618426644</v>
+        <v>-27.62020285093311</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6602,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="F302">
-        <v>-19.35253813365992</v>
+        <v>-19.35203813365992</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6622,7 +6622,7 @@
         <v>16</v>
       </c>
       <c r="F303">
-        <v>-35.18004993636384</v>
+        <v>-35.2397166030305</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6642,7 +6642,7 @@
         <v>17</v>
       </c>
       <c r="F304">
-        <v>-14.71473481021149</v>
+        <v>-14.68673481021149</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6662,7 +6662,7 @@
         <v>18</v>
       </c>
       <c r="F305">
-        <v>-27.61903618426644</v>
+        <v>-27.58320285093311</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6722,7 +6722,7 @@
         <v>15</v>
       </c>
       <c r="F308">
-        <v>-19.35253813365992</v>
+        <v>-19.37653813365992</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6742,7 +6742,7 @@
         <v>16</v>
       </c>
       <c r="F309">
-        <v>-35.18004993636384</v>
+        <v>-35.1817166030305</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6762,7 +6762,7 @@
         <v>17</v>
       </c>
       <c r="F310">
-        <v>-14.71473481021149</v>
+        <v>-14.73723481021149</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6782,7 +6782,7 @@
         <v>18</v>
       </c>
       <c r="F311">
-        <v>-27.61903618426644</v>
+        <v>-27.65370285093311</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6992,16 +6992,16 @@
         <v>-19.38003813365992</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.05922837157984277</v>
       </c>
       <c r="E2">
-        <v>-19.38003813365992</v>
+        <v>-19.31803813365992</v>
       </c>
       <c r="F2">
-        <v>-19.38003813365992</v>
+        <v>-19.38603813365992</v>
       </c>
       <c r="G2">
-        <v>-19.38003813365992</v>
+        <v>-19.43603813365992</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7012,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>-35.3047166030305</v>
+        <v>-35.30471660303051</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.06546563984259272</v>
       </c>
       <c r="E3">
-        <v>-35.3047166030305</v>
+        <v>-35.3802166030305</v>
       </c>
       <c r="F3">
-        <v>-35.3047166030305</v>
+        <v>-35.27021660303051</v>
       </c>
       <c r="G3">
-        <v>-35.3047166030305</v>
+        <v>-35.2637166030305</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7038,16 +7038,16 @@
         <v>-15.07290147687816</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.04476978147515655</v>
       </c>
       <c r="E4">
-        <v>-15.07290147687816</v>
+        <v>-15.02123481021149</v>
       </c>
       <c r="F4">
-        <v>-15.07290147687816</v>
+        <v>-15.10023481021149</v>
       </c>
       <c r="G4">
-        <v>-15.07290147687816</v>
+        <v>-15.09723481021149</v>
       </c>
     </row>
   </sheetData>
@@ -7106,19 +7106,19 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>-19.38003813365992</v>
+        <v>-19.31803813365992</v>
       </c>
       <c r="F2">
-        <v>-19.38003813365992</v>
+        <v>-19.38603813365992</v>
       </c>
       <c r="G2">
-        <v>-19.38003813365992</v>
+        <v>-19.43603813365992</v>
       </c>
       <c r="H2">
         <v>-19.38003813365992</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.04835976288885852</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7135,19 +7135,19 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>-35.3047166030305</v>
+        <v>-35.3802166030305</v>
       </c>
       <c r="F3">
-        <v>-35.3047166030305</v>
+        <v>-35.27021660303051</v>
       </c>
       <c r="G3">
-        <v>-35.3047166030305</v>
+        <v>-35.2637166030305</v>
       </c>
       <c r="H3">
-        <v>-35.3047166030305</v>
+        <v>-35.30471660303051</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.05345247109972288</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7164,19 +7164,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>-15.07290147687816</v>
+        <v>-15.02123481021149</v>
       </c>
       <c r="F4">
-        <v>-15.07290147687816</v>
+        <v>-15.10023481021149</v>
       </c>
       <c r="G4">
-        <v>-15.07290147687816</v>
+        <v>-15.09723481021149</v>
       </c>
       <c r="H4">
         <v>-15.07290147687816</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03655437350334677</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7193,19 +7193,19 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>-27.71520285093311</v>
+        <v>-27.71020285093311</v>
       </c>
       <c r="F5">
-        <v>-27.71520285093311</v>
+        <v>-27.71720285093311</v>
       </c>
       <c r="G5">
-        <v>-27.71520285093311</v>
+        <v>-27.71820285093311</v>
       </c>
       <c r="H5">
         <v>-27.71520285093311</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003559026084009796</v>
       </c>
     </row>
   </sheetData>
@@ -7264,19 +7264,19 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>-18.75653813365992</v>
+        <v>-18.74153813365992</v>
       </c>
       <c r="F2">
-        <v>-18.75653813365992</v>
+        <v>-18.78003813365992</v>
       </c>
       <c r="G2">
-        <v>-18.75653813365992</v>
+        <v>-18.74803813365992</v>
       </c>
       <c r="H2">
         <v>-18.75653813365992</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01682755676462444</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7293,19 +7293,19 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>-34.88638326969717</v>
+        <v>-35.0552166030305</v>
       </c>
       <c r="F3">
-        <v>-34.88638326969717</v>
+        <v>-34.9652166030305</v>
       </c>
       <c r="G3">
-        <v>-34.88638326969717</v>
+        <v>-34.6387166030305</v>
       </c>
       <c r="H3">
         <v>-34.88638326969717</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.178939623585411</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7322,19 +7322,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>-14.61923481021149</v>
+        <v>-14.58423481021149</v>
       </c>
       <c r="F4">
-        <v>-14.61923481021149</v>
+        <v>-14.62273481021149</v>
       </c>
       <c r="G4">
-        <v>-14.61923481021149</v>
+        <v>-14.65073481021149</v>
       </c>
       <c r="H4">
         <v>-14.61923481021149</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02726108337294502</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7351,19 +7351,19 @@
         <v>18</v>
       </c>
       <c r="E5">
+        <v>-27.97470285093311</v>
+      </c>
+      <c r="F5">
+        <v>-27.91520285093311</v>
+      </c>
+      <c r="G5">
+        <v>-27.84920285093311</v>
+      </c>
+      <c r="H5">
         <v>-27.91303618426644</v>
       </c>
-      <c r="F5">
-        <v>-27.91303618426644</v>
-      </c>
-      <c r="G5">
-        <v>-27.91303618426644</v>
-      </c>
-      <c r="H5">
-        <v>-27.91303618426643</v>
-      </c>
       <c r="I5">
-        <v>3.552713678800501E-15</v>
+        <v>0.05125806169656476</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7380,19 +7380,19 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>-19.22070480032659</v>
+        <v>-19.16403813365992</v>
       </c>
       <c r="F6">
-        <v>-19.22070480032659</v>
+        <v>-19.25803813365992</v>
       </c>
       <c r="G6">
-        <v>-19.22070480032659</v>
+        <v>-19.24003813365992</v>
       </c>
       <c r="H6">
         <v>-19.22070480032659</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04073764297987295</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7409,19 +7409,19 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>-35.3767166030305</v>
+        <v>-35.4392166030305</v>
       </c>
       <c r="F7">
-        <v>-35.3767166030305</v>
+        <v>-35.3382166030305</v>
       </c>
       <c r="G7">
-        <v>-35.3767166030305</v>
+        <v>-35.3527166030305</v>
       </c>
       <c r="H7">
         <v>-35.3767166030305</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0445888625854782</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7438,19 +7438,19 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>-14.67956814354483</v>
+        <v>-14.67173481021149</v>
       </c>
       <c r="F8">
-        <v>-14.67956814354483</v>
+        <v>-14.66723481021149</v>
       </c>
       <c r="G8">
-        <v>-14.67956814354483</v>
+        <v>-14.69973481021149</v>
       </c>
       <c r="H8">
         <v>-14.67956814354483</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01437783788412673</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7467,19 +7467,19 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>-27.70803618426644</v>
+        <v>-27.72520285093311</v>
       </c>
       <c r="F9">
-        <v>-27.70803618426644</v>
+        <v>-27.67220285093311</v>
       </c>
       <c r="G9">
-        <v>-27.70803618426644</v>
+        <v>-27.72670285093311</v>
       </c>
       <c r="H9">
         <v>-27.70803618426644</v>
       </c>
       <c r="I9">
-        <v>3.552713678800501E-15</v>
+        <v>0.02534539186694318</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7496,19 +7496,19 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>-19.16637146699325</v>
+        <v>-19.13003813365992</v>
       </c>
       <c r="F10">
-        <v>-19.16637146699325</v>
+        <v>-19.16103813365992</v>
       </c>
       <c r="G10">
-        <v>-19.16637146699325</v>
+        <v>-19.20803813365992</v>
       </c>
       <c r="H10">
         <v>-19.16637146699325</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03206590435684311</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7525,19 +7525,19 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>-35.14138326969717</v>
+        <v>-35.0557166030305</v>
       </c>
       <c r="F11">
-        <v>-35.14138326969717</v>
+        <v>-35.1107166030305</v>
       </c>
       <c r="G11">
-        <v>-35.14138326969717</v>
+        <v>-35.2577166030305</v>
       </c>
       <c r="H11">
         <v>-35.14138326969717</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.08526950738035698</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7554,19 +7554,19 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>-14.80840147687816</v>
+        <v>-14.75973481021149</v>
       </c>
       <c r="F12">
-        <v>-14.80840147687816</v>
+        <v>-14.82223481021149</v>
       </c>
       <c r="G12">
-        <v>-14.80840147687816</v>
+        <v>-14.84323481021149</v>
       </c>
       <c r="H12">
         <v>-14.80840147687816</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03546437962550874</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7583,19 +7583,19 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>-27.7957028509331</v>
+        <v>-27.74620285093311</v>
       </c>
       <c r="F13">
-        <v>-27.7957028509331</v>
+        <v>-27.77920285093311</v>
       </c>
       <c r="G13">
-        <v>-27.7957028509331</v>
+        <v>-27.86170285093311</v>
       </c>
       <c r="H13">
-        <v>-27.7957028509331</v>
+        <v>-27.79570285093311</v>
       </c>
       <c r="I13">
-        <v>3.552713678800501E-15</v>
+        <v>0.04857468476480219</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7612,19 +7612,19 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>-18.93470480032659</v>
+        <v>-18.89853813365992</v>
       </c>
       <c r="F14">
-        <v>-18.93470480032659</v>
+        <v>-18.91503813365992</v>
       </c>
       <c r="G14">
-        <v>-18.93470480032659</v>
+        <v>-18.99053813365992</v>
       </c>
       <c r="H14">
         <v>-18.93470480032659</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.04005066236100906</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7641,19 +7641,19 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>-34.78854993636384</v>
+        <v>-34.6962166030305</v>
       </c>
       <c r="F15">
-        <v>-34.78854993636384</v>
+        <v>-34.8652166030305</v>
       </c>
       <c r="G15">
-        <v>-34.78854993636384</v>
+        <v>-34.8042166030305</v>
       </c>
       <c r="H15">
         <v>-34.78854993636384</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06987767088912693</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7670,19 +7670,19 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>-14.43990147687816</v>
+        <v>-14.44073481021149</v>
       </c>
       <c r="F16">
-        <v>-14.43990147687816</v>
+        <v>-14.44523481021149</v>
       </c>
       <c r="G16">
-        <v>-14.43990147687816</v>
+        <v>-14.43373481021149</v>
       </c>
       <c r="H16">
         <v>-14.43990147687816</v>
       </c>
       <c r="I16">
-        <v>1.77635683940025E-15</v>
+        <v>0.004731689855526052</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7699,19 +7699,19 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>-27.77320285093311</v>
+        <v>-27.77620285093311</v>
       </c>
       <c r="F17">
-        <v>-27.77320285093311</v>
+        <v>-27.7572028509331</v>
       </c>
       <c r="G17">
-        <v>-27.77320285093311</v>
+        <v>-27.78620285093311</v>
       </c>
       <c r="H17">
         <v>-27.77320285093311</v>
       </c>
       <c r="I17">
-        <v>3.552713678800501E-15</v>
+        <v>0.01202774570178055</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7728,19 +7728,19 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>-19.96720480032659</v>
+        <v>-19.94353813365992</v>
       </c>
       <c r="F18">
-        <v>-19.96720480032659</v>
+        <v>-19.99053813365992</v>
       </c>
       <c r="G18">
-        <v>-19.96720480032659</v>
+        <v>-19.96753813365992</v>
       </c>
       <c r="H18">
         <v>-19.96720480032659</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01918911728616592</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7757,19 +7757,19 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>-36.53888326969717</v>
+        <v>-36.5037166030305</v>
       </c>
       <c r="F19">
-        <v>-36.53888326969717</v>
+        <v>-36.4647166030305</v>
       </c>
       <c r="G19">
-        <v>-36.53888326969717</v>
+        <v>-36.64821660303051</v>
       </c>
       <c r="H19">
         <v>-36.53888326969717</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07893281249828246</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7786,19 +7786,19 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>-15.87473481021149</v>
+        <v>-15.85923481021149</v>
       </c>
       <c r="F20">
-        <v>-15.87473481021149</v>
+        <v>-15.87923481021149</v>
       </c>
       <c r="G20">
-        <v>-15.87473481021149</v>
+        <v>-15.88573481021149</v>
       </c>
       <c r="H20">
         <v>-15.87473481021149</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01127681988269159</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7815,19 +7815,19 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>-27.74420285093311</v>
+        <v>-27.72370285093311</v>
       </c>
       <c r="F21">
-        <v>-27.74420285093311</v>
+        <v>-27.72470285093311</v>
       </c>
       <c r="G21">
-        <v>-27.74420285093311</v>
+        <v>-27.78420285093311</v>
       </c>
       <c r="H21">
         <v>-27.74420285093311</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02828721737228022</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7844,19 +7844,19 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>-19.60737146699326</v>
+        <v>-19.58203813365992</v>
       </c>
       <c r="F22">
-        <v>-19.60737146699326</v>
+        <v>-19.62103813365992</v>
       </c>
       <c r="G22">
-        <v>-19.60737146699326</v>
+        <v>-19.61903813365992</v>
       </c>
       <c r="H22">
-        <v>-19.60737146699326</v>
+        <v>-19.60737146699325</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01793197020841719</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7873,19 +7873,19 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <v>-35.34638326969717</v>
+        <v>-35.3112166030305</v>
       </c>
       <c r="F23">
-        <v>-35.34638326969717</v>
+        <v>-35.4227166030305</v>
       </c>
       <c r="G23">
-        <v>-35.34638326969717</v>
+        <v>-35.3052166030305</v>
       </c>
       <c r="H23">
         <v>-35.34638326969717</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.05403136948929639</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7902,19 +7902,19 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>-15.21023481021149</v>
+        <v>-15.20273481021149</v>
       </c>
       <c r="F24">
-        <v>-15.21023481021149</v>
+        <v>-15.24323481021149</v>
       </c>
       <c r="G24">
-        <v>-15.21023481021149</v>
+        <v>-15.18473481021149</v>
       </c>
       <c r="H24">
         <v>-15.21023481021149</v>
       </c>
       <c r="I24">
-        <v>1.77635683940025E-15</v>
+        <v>0.02446425964545026</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7931,19 +7931,19 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>-27.74003618426644</v>
+        <v>-27.76270285093311</v>
       </c>
       <c r="F25">
-        <v>-27.74003618426644</v>
+        <v>-27.74070285093311</v>
       </c>
       <c r="G25">
-        <v>-27.74003618426644</v>
+        <v>-27.71670285093311</v>
       </c>
       <c r="H25">
         <v>-27.74003618426644</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01878533707147502</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7960,19 +7960,19 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>-19.64103813365992</v>
+        <v>-19.62403813365992</v>
       </c>
       <c r="F26">
-        <v>-19.64103813365992</v>
+        <v>-19.67703813365992</v>
       </c>
       <c r="G26">
-        <v>-19.64103813365992</v>
+        <v>-19.62203813365992</v>
       </c>
       <c r="H26">
         <v>-19.64103813365992</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.02546893532652341</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7989,19 +7989,19 @@
         <v>16</v>
       </c>
       <c r="E27">
-        <v>-35.76838326969717</v>
+        <v>-35.6477166030305</v>
       </c>
       <c r="F27">
-        <v>-35.76838326969717</v>
+        <v>-35.7892166030305</v>
       </c>
       <c r="G27">
-        <v>-35.76838326969717</v>
+        <v>-35.8682166030305</v>
       </c>
       <c r="H27">
         <v>-35.76838326969717</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.09121616572126336</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8018,19 +8018,19 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>-15.28740147687816</v>
+        <v>-15.29423481021149</v>
       </c>
       <c r="F28">
-        <v>-15.28740147687816</v>
+        <v>-15.30123481021149</v>
       </c>
       <c r="G28">
-        <v>-15.28740147687816</v>
+        <v>-15.26673481021149</v>
       </c>
       <c r="H28">
         <v>-15.28740147687816</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.01489033989612787</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8047,19 +8047,19 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>-27.73186951759978</v>
+        <v>-27.78920285093311</v>
       </c>
       <c r="F29">
-        <v>-27.73186951759978</v>
+        <v>-27.68820285093311</v>
       </c>
       <c r="G29">
-        <v>-27.73186951759978</v>
+        <v>-27.71820285093311</v>
       </c>
       <c r="H29">
         <v>-27.73186951759978</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.04235039026450102</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8076,19 +8076,19 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>-19.20253813365992</v>
+        <v>-19.14453813365992</v>
       </c>
       <c r="F30">
-        <v>-19.20253813365992</v>
+        <v>-19.24403813365992</v>
       </c>
       <c r="G30">
-        <v>-19.20253813365992</v>
+        <v>-19.21903813365992</v>
       </c>
       <c r="H30">
         <v>-19.20253813365992</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.04226306504108102</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8105,19 +8105,19 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>-35.11204993636384</v>
+        <v>-34.9772166030305</v>
       </c>
       <c r="F31">
-        <v>-35.11204993636384</v>
+        <v>-35.1187166030305</v>
       </c>
       <c r="G31">
-        <v>-35.11204993636384</v>
+        <v>-35.2402166030305</v>
       </c>
       <c r="H31">
         <v>-35.11204993636384</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.1074727355606497</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8134,19 +8134,19 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>-14.97006814354483</v>
+        <v>-14.93573481021149</v>
       </c>
       <c r="F32">
-        <v>-14.97006814354483</v>
+        <v>-14.97673481021149</v>
       </c>
       <c r="G32">
-        <v>-14.97006814354483</v>
+        <v>-14.99773481021149</v>
       </c>
       <c r="H32">
-        <v>-14.97006814354483</v>
+        <v>-14.97006814354482</v>
       </c>
       <c r="I32">
-        <v>1.77635683940025E-15</v>
+        <v>0.02574662868977047</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8163,19 +8163,19 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>-27.57403618426644</v>
+        <v>-27.55720285093311</v>
       </c>
       <c r="F33">
-        <v>-27.57403618426644</v>
+        <v>-27.55820285093311</v>
       </c>
       <c r="G33">
-        <v>-27.57403618426644</v>
+        <v>-27.60670285093311</v>
       </c>
       <c r="H33">
         <v>-27.57403618426644</v>
       </c>
       <c r="I33">
-        <v>3.552713678800501E-15</v>
+        <v>0.02310242892473019</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8192,19 +8192,19 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>-19.74953813365992</v>
+        <v>-19.76903813365992</v>
       </c>
       <c r="F34">
-        <v>-19.74953813365992</v>
+        <v>-19.73653813365992</v>
       </c>
       <c r="G34">
-        <v>-19.74953813365992</v>
+        <v>-19.74303813365992</v>
       </c>
       <c r="H34">
         <v>-19.74953813365992</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.01404160484655108</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -8221,19 +8221,19 @@
         <v>16</v>
       </c>
       <c r="E35">
-        <v>-36.04604993636384</v>
+        <v>-36.10971660303051</v>
       </c>
       <c r="F35">
-        <v>-36.04604993636384</v>
+        <v>-35.9967166030305</v>
       </c>
       <c r="G35">
-        <v>-36.04604993636384</v>
+        <v>-36.0317166030305</v>
       </c>
       <c r="H35">
         <v>-36.04604993636384</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.04723228650922096</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8250,19 +8250,19 @@
         <v>17</v>
       </c>
       <c r="E36">
+        <v>-15.78873481021149</v>
+      </c>
+      <c r="F36">
+        <v>-15.79623481021149</v>
+      </c>
+      <c r="G36">
+        <v>-15.84123481021149</v>
+      </c>
+      <c r="H36">
         <v>-15.80873481021149</v>
       </c>
-      <c r="F36">
-        <v>-15.80873481021149</v>
-      </c>
-      <c r="G36">
-        <v>-15.80873481021149</v>
-      </c>
-      <c r="H36">
-        <v>-15.8087348102115</v>
-      </c>
       <c r="I36">
-        <v>1.77635683940025E-15</v>
+        <v>0.0231840462387388</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8279,19 +8279,19 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>-27.65836951759977</v>
+        <v>-27.61670285093311</v>
       </c>
       <c r="F37">
-        <v>-27.65836951759977</v>
+        <v>-27.62870285093311</v>
       </c>
       <c r="G37">
-        <v>-27.65836951759977</v>
+        <v>-27.72970285093311</v>
       </c>
       <c r="H37">
         <v>-27.65836951759978</v>
       </c>
       <c r="I37">
-        <v>3.552713678800501E-15</v>
+        <v>0.0506776303927304</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8308,19 +8308,19 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>-19.37137146699326</v>
+        <v>-19.36253813365992</v>
       </c>
       <c r="F38">
-        <v>-19.37137146699326</v>
+        <v>-19.39753813365992</v>
       </c>
       <c r="G38">
-        <v>-19.37137146699326</v>
+        <v>-19.35403813365992</v>
       </c>
       <c r="H38">
         <v>-19.37137146699326</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.01882521949112115</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8337,19 +8337,19 @@
         <v>16</v>
       </c>
       <c r="E39">
-        <v>-35.21854993636384</v>
+        <v>-35.2372166030305</v>
       </c>
       <c r="F39">
-        <v>-35.21854993636384</v>
+        <v>-35.21071660303051</v>
       </c>
       <c r="G39">
-        <v>-35.21854993636384</v>
+        <v>-35.20771660303051</v>
       </c>
       <c r="H39">
         <v>-35.21854993636384</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.01325602588343151</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8366,19 +8366,19 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>-14.81623481021149</v>
+        <v>-14.86123481021149</v>
       </c>
       <c r="F40">
-        <v>-14.81623481021149</v>
+        <v>-14.78623481021149</v>
       </c>
       <c r="G40">
-        <v>-14.81623481021149</v>
+        <v>-14.80123481021149</v>
       </c>
       <c r="H40">
         <v>-14.81623481021149</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.03240370349203971</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8395,19 +8395,19 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>-27.73320285093311</v>
+        <v>-27.74170285093311</v>
       </c>
       <c r="F41">
-        <v>-27.73320285093311</v>
+        <v>-27.69420285093311</v>
       </c>
       <c r="G41">
-        <v>-27.73320285093311</v>
+        <v>-27.76370285093311</v>
       </c>
       <c r="H41">
         <v>-27.73320285093311</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.02900287342086333</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8424,19 +8424,19 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>-19.23737146699326</v>
+        <v>-19.20753813365992</v>
       </c>
       <c r="F42">
-        <v>-19.23737146699326</v>
+        <v>-19.23453813365992</v>
       </c>
       <c r="G42">
-        <v>-19.23737146699326</v>
+        <v>-19.27003813365992</v>
       </c>
       <c r="H42">
         <v>-19.23737146699326</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.02559405312871632</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -8453,19 +8453,19 @@
         <v>16</v>
       </c>
       <c r="E43">
-        <v>-34.82138326969717</v>
+        <v>-34.7862166030305</v>
       </c>
       <c r="F43">
-        <v>-34.82138326969717</v>
+        <v>-34.7927166030305</v>
       </c>
       <c r="G43">
-        <v>-34.82138326969717</v>
+        <v>-34.8852166030305</v>
       </c>
       <c r="H43">
         <v>-34.82138326969717</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.04521491887517694</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -8482,19 +8482,19 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>-15.10023481021149</v>
+        <v>-15.07723481021149</v>
       </c>
       <c r="F44">
-        <v>-15.10023481021149</v>
+        <v>-15.12523481021149</v>
       </c>
       <c r="G44">
-        <v>-15.10023481021149</v>
+        <v>-15.09823481021149</v>
       </c>
       <c r="H44">
         <v>-15.10023481021149</v>
       </c>
       <c r="I44">
-        <v>1.77635683940025E-15</v>
+        <v>0.01964688270438849</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8511,19 +8511,19 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>-27.73186951759978</v>
+        <v>-27.72670285093311</v>
       </c>
       <c r="F45">
-        <v>-27.73186951759978</v>
+        <v>-27.73620285093311</v>
       </c>
       <c r="G45">
-        <v>-27.73186951759978</v>
+        <v>-27.73270285093311</v>
       </c>
       <c r="H45">
         <v>-27.73186951759978</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.003922867431979653</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -8540,19 +8540,19 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>-19.35253813365992</v>
+        <v>-19.32903813365992</v>
       </c>
       <c r="F46">
-        <v>-19.35253813365992</v>
+        <v>-19.35203813365992</v>
       </c>
       <c r="G46">
-        <v>-19.35253813365992</v>
+        <v>-19.37653813365992</v>
       </c>
       <c r="H46">
         <v>-19.35253813365992</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.01939501654205679</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -8569,19 +8569,19 @@
         <v>16</v>
       </c>
       <c r="E47">
-        <v>-35.18004993636384</v>
+        <v>-35.1187166030305</v>
       </c>
       <c r="F47">
-        <v>-35.18004993636384</v>
+        <v>-35.2397166030305</v>
       </c>
       <c r="G47">
-        <v>-35.18004993636384</v>
+        <v>-35.1817166030305</v>
       </c>
       <c r="H47">
         <v>-35.18004993636384</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.04941209928302628</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -8598,19 +8598,19 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>-14.71473481021149</v>
+        <v>-14.72023481021149</v>
       </c>
       <c r="F48">
-        <v>-14.71473481021149</v>
+        <v>-14.68673481021149</v>
       </c>
       <c r="G48">
-        <v>-14.71473481021149</v>
+        <v>-14.73723481021149</v>
       </c>
       <c r="H48">
         <v>-14.71473481021149</v>
       </c>
       <c r="I48">
-        <v>1.77635683940025E-15</v>
+        <v>0.02098014934805422</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -8627,19 +8627,19 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>-27.61903618426644</v>
+        <v>-27.62020285093311</v>
       </c>
       <c r="F49">
-        <v>-27.61903618426644</v>
+        <v>-27.58320285093311</v>
       </c>
       <c r="G49">
-        <v>-27.61903618426644</v>
+        <v>-27.65370285093311</v>
       </c>
       <c r="H49">
         <v>-27.61903618426645</v>
       </c>
       <c r="I49">
-        <v>3.552713678800501E-15</v>
+        <v>0.02879332484371368</v>
       </c>
     </row>
   </sheetData>
@@ -8649,13 +8649,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -8669,22 +8669,13 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8692,28 +8683,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>-25.866</v>
+        <v>-18.75653813365992</v>
       </c>
       <c r="E2">
-        <v>-28.675</v>
+        <v>-34.88638326969717</v>
       </c>
       <c r="F2">
-        <v>-36.784</v>
-      </c>
-      <c r="G2">
-        <v>-23.837</v>
-      </c>
-      <c r="H2">
-        <v>-19.433</v>
-      </c>
-      <c r="I2">
-        <v>-30.103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-14.61923481021149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8721,28 +8703,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>-18.75653813365992</v>
+        <v>-19.22070480032659</v>
       </c>
       <c r="E3">
-        <v>-28.916</v>
+        <v>-35.3767166030305</v>
       </c>
       <c r="F3">
-        <v>-34.88638326969717</v>
-      </c>
-      <c r="G3">
-        <v>-23.963</v>
-      </c>
-      <c r="H3">
-        <v>-14.61923481021149</v>
-      </c>
-      <c r="I3">
-        <v>-27.91303618426644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-14.67956814354483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8750,28 +8723,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>-19.22070480032659</v>
+        <v>-19.16637146699325</v>
       </c>
       <c r="E4">
-        <v>-29.14</v>
+        <v>-35.14138326969717</v>
       </c>
       <c r="F4">
-        <v>-35.3767166030305</v>
-      </c>
-      <c r="G4">
-        <v>-23.906</v>
-      </c>
-      <c r="H4">
-        <v>-14.67956814354483</v>
-      </c>
-      <c r="I4">
-        <v>-27.70803618426644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-14.80840147687816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -8779,28 +8743,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>-19.16637146699325</v>
+        <v>-18.93470480032659</v>
       </c>
       <c r="E5">
-        <v>-29.371</v>
+        <v>-34.78854993636384</v>
       </c>
       <c r="F5">
-        <v>-35.14138326969717</v>
-      </c>
-      <c r="G5">
-        <v>-23.959</v>
-      </c>
-      <c r="H5">
-        <v>-14.80840147687816</v>
-      </c>
-      <c r="I5">
-        <v>-27.7957028509331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-14.43990147687816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -8808,28 +8763,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-18.93470480032659</v>
+        <v>-19.96720480032659</v>
       </c>
       <c r="E6">
-        <v>-29.257</v>
+        <v>-36.53888326969717</v>
       </c>
       <c r="F6">
-        <v>-34.78854993636384</v>
-      </c>
-      <c r="G6">
-        <v>-23.933</v>
-      </c>
-      <c r="H6">
-        <v>-14.43990147687816</v>
-      </c>
-      <c r="I6">
-        <v>-27.77320285093311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-15.87473481021149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -8837,28 +8783,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>-19.96720480032659</v>
+        <v>-19.60737146699325</v>
       </c>
       <c r="E7">
-        <v>-29.285</v>
+        <v>-35.34638326969717</v>
       </c>
       <c r="F7">
-        <v>-36.53888326969717</v>
-      </c>
-      <c r="G7">
-        <v>-23.906</v>
-      </c>
-      <c r="H7">
-        <v>-15.87473481021149</v>
-      </c>
-      <c r="I7">
-        <v>-27.74420285093311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-15.21023481021149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -8866,28 +8803,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>-19.60737146699326</v>
+        <v>-19.64103813365992</v>
       </c>
       <c r="E8">
-        <v>-29.139</v>
+        <v>-35.76838326969717</v>
       </c>
       <c r="F8">
-        <v>-35.34638326969717</v>
-      </c>
-      <c r="G8">
-        <v>-23.915</v>
-      </c>
-      <c r="H8">
-        <v>-15.21023481021149</v>
-      </c>
-      <c r="I8">
-        <v>-27.74003618426644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-15.28740147687816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -8895,28 +8823,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>-19.64103813365992</v>
+        <v>-19.20253813365992</v>
       </c>
       <c r="E9">
-        <v>-29.092</v>
+        <v>-35.11204993636384</v>
       </c>
       <c r="F9">
-        <v>-35.76838326969717</v>
-      </c>
-      <c r="G9">
-        <v>-23.971</v>
-      </c>
-      <c r="H9">
-        <v>-15.28740147687816</v>
-      </c>
-      <c r="I9">
-        <v>-27.73186951759978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-14.97006814354482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8924,28 +8843,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>-19.20253813365992</v>
+        <v>-19.74953813365992</v>
       </c>
       <c r="E10">
-        <v>-29.173</v>
+        <v>-36.04604993636384</v>
       </c>
       <c r="F10">
-        <v>-35.11204993636384</v>
-      </c>
-      <c r="G10">
-        <v>-23.904</v>
-      </c>
-      <c r="H10">
-        <v>-14.97006814354483</v>
-      </c>
-      <c r="I10">
-        <v>-27.57403618426644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-15.80873481021149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8953,28 +8863,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>-19.74953813365992</v>
+        <v>-19.37137146699326</v>
       </c>
       <c r="E11">
-        <v>-29.178</v>
+        <v>-35.21854993636384</v>
       </c>
       <c r="F11">
-        <v>-36.04604993636384</v>
-      </c>
-      <c r="G11">
-        <v>-23.891</v>
-      </c>
-      <c r="H11">
-        <v>-15.80873481021149</v>
-      </c>
-      <c r="I11">
-        <v>-27.65836951759977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-14.81623481021149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8982,28 +8883,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>-19.37137146699326</v>
+        <v>-19.23737146699326</v>
       </c>
       <c r="E12">
-        <v>-29.14</v>
+        <v>-34.82138326969717</v>
       </c>
       <c r="F12">
-        <v>-35.21854993636384</v>
-      </c>
-      <c r="G12">
-        <v>-23.968</v>
-      </c>
-      <c r="H12">
-        <v>-14.81623481021149</v>
-      </c>
-      <c r="I12">
-        <v>-27.73320285093311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-15.10023481021149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -9011,28 +8903,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>-19.23737146699326</v>
+        <v>-19.38003813365992</v>
       </c>
       <c r="E13">
-        <v>-29.066</v>
+        <v>-35.30471660303051</v>
       </c>
       <c r="F13">
-        <v>-34.82138326969717</v>
-      </c>
-      <c r="G13">
-        <v>-24.07</v>
-      </c>
-      <c r="H13">
-        <v>-15.10023481021149</v>
-      </c>
-      <c r="I13">
-        <v>-27.73186951759978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-15.07290147687816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -9040,54 +8923,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>-19.38003813365992</v>
+        <v>-19.35253813365992</v>
       </c>
       <c r="E14">
-        <v>-29.065</v>
+        <v>-35.18004993636384</v>
       </c>
       <c r="F14">
-        <v>-35.3047166030305</v>
-      </c>
-      <c r="G14">
-        <v>-24.106</v>
-      </c>
-      <c r="H14">
-        <v>-15.07290147687816</v>
-      </c>
-      <c r="I14">
-        <v>-27.71520285093311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>-19.35253813365992</v>
-      </c>
-      <c r="E15">
-        <v>-28.984</v>
-      </c>
-      <c r="F15">
-        <v>-35.18004993636384</v>
-      </c>
-      <c r="G15">
-        <v>-24.049</v>
-      </c>
-      <c r="H15">
         <v>-14.71473481021149</v>
-      </c>
-      <c r="I15">
-        <v>-27.61903618426644</v>
       </c>
     </row>
   </sheetData>
